--- a/Proyecto Final/Variables.xlsx
+++ b/Proyecto Final/Variables.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joran\Desktop\Proyecto Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joran\Desktop\Maestría en Ciencia de Datos\Análisis exploratorio de datos\Proyecto Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F24E6D-9FB7-4F2B-A4BD-3318454E4BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F48A9D-2FE4-4E43-93D3-5994DAEC5D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{61A84A6B-FC75-4228-96B4-3E6CEAA5F620}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{61A84A6B-FC75-4228-96B4-3E6CEAA5F620}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
-    <sheet name="Estructura" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,17 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>Variable</t>
   </si>
   <si>
-    <t>TipoVariable</t>
-  </si>
-  <si>
-    <t>RangoCategoria</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -56,76 +49,118 @@
     <t>Fecha en el que se jugó el partido</t>
   </si>
   <si>
-    <t>GT</t>
-  </si>
-  <si>
     <t>Cualitativa - Nominal</t>
   </si>
   <si>
-    <t>Tipo de juego del partido (Local o visitante)</t>
-  </si>
-  <si>
-    <t>FTG</t>
-  </si>
-  <si>
-    <t>Cantidad de goles al finalizar el partido</t>
-  </si>
-  <si>
     <t>FTR</t>
   </si>
   <si>
-    <t>Resultado final del partido</t>
-  </si>
-  <si>
-    <t>HTG</t>
-  </si>
-  <si>
-    <t>Cantidad de goles al finalizar el primer tiempo</t>
-  </si>
-  <si>
     <t>HTR</t>
   </si>
   <si>
-    <t>Resultado final del partido al finalizar el primer tiempo</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t>Cantidad de tiros al arco</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Cantidad de faltas</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Cantidad de tiros de esquina</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Cantidad de tarjetas amarillas</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Cantidad de tarjetas rojas</t>
-  </si>
-  <si>
-    <t>TEAM</t>
-  </si>
-  <si>
-    <t>Equipo de fútbol que jugó</t>
-  </si>
-  <si>
-    <t>FC</t>
+    <t>HomeTeam</t>
+  </si>
+  <si>
+    <t>AwayTeam</t>
+  </si>
+  <si>
+    <t>FTHG</t>
+  </si>
+  <si>
+    <t>FTAG</t>
+  </si>
+  <si>
+    <t>Equipo local</t>
+  </si>
+  <si>
+    <t>Equipo visitante</t>
+  </si>
+  <si>
+    <t>Goles que marcó el equipo local al finalizar el partido</t>
+  </si>
+  <si>
+    <t>Goles que marcó el equipo visitante al finalizar el partido</t>
+  </si>
+  <si>
+    <t>Resultado final del partido (H: Ganó el local, A: Ganó el visitante, D: Empate)</t>
+  </si>
+  <si>
+    <t>HTHG</t>
+  </si>
+  <si>
+    <t>Goles que marcó el equipo local al finalizar el medio tiempo</t>
+  </si>
+  <si>
+    <t>Goles que marcó el equipo visitante al finalizar el medio tiempo</t>
+  </si>
+  <si>
+    <t>HTAG</t>
+  </si>
+  <si>
+    <t>Resultado final del primer tiempo (H: Ganó el local, A: Ganó el visitante, D: Empate)</t>
+  </si>
+  <si>
+    <t>HST</t>
+  </si>
+  <si>
+    <t>AST</t>
+  </si>
+  <si>
+    <t>Cantidad de tiros al arco por parte del equipo local</t>
+  </si>
+  <si>
+    <t>Cantidad de tiros al arco por parte del equipo visitante</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>HY</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Cantidad de faltas por parte del equipo local</t>
+  </si>
+  <si>
+    <t>Cantidad de tiros de esquina por parte del equipo local</t>
+  </si>
+  <si>
+    <t>Cantidad de faltas por parte del equipo visitante</t>
+  </si>
+  <si>
+    <t>Cantidad de tarjetas amarillas por parte del equipo local</t>
+  </si>
+  <si>
+    <t>Cantidad de tiros de esquina por parte del equipo visitante</t>
+  </si>
+  <si>
+    <t>Cantidad de tarjetas amarillas por parte del equipo visitante</t>
+  </si>
+  <si>
+    <t>Cantidad de tarjetas rojas por parte del equipo local</t>
+  </si>
+  <si>
+    <t>Cantidad de tarjetas rojas por parte del equipo visitante</t>
+  </si>
+  <si>
+    <t>Tipo de variable</t>
+  </si>
+  <si>
+    <t>Rango o categoría</t>
   </si>
 </sst>
 </file>
@@ -176,10 +211,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,216 +530,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74E1908-4625-4DF8-B221-CA420FF2FC22}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D30355-669A-40B7-9966-ECF9F889E131}">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Proyecto Final/Variables.xlsx
+++ b/Proyecto Final/Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joran\Desktop\Maestría en Ciencia de Datos\Análisis exploratorio de datos\Proyecto Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F48A9D-2FE4-4E43-93D3-5994DAEC5D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4739E1A-CB79-4863-B6C5-5DD037A5374F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{61A84A6B-FC75-4228-96B4-3E6CEAA5F620}"/>
   </bookViews>
@@ -533,7 +533,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C3" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Proyecto Final/Variables.xlsx
+++ b/Proyecto Final/Variables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joran\Desktop\Maestría en Ciencia de Datos\Análisis exploratorio de datos\Proyecto Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joran\Desktop\Cmd\Analisis-Exploratorio-de-Datos\Proyecto Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4739E1A-CB79-4863-B6C5-5DD037A5374F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA47B41-C3F9-48ED-81A1-EB4F2FB5469C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{61A84A6B-FC75-4228-96B4-3E6CEAA5F620}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{61A84A6B-FC75-4228-96B4-3E6CEAA5F620}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>Variable</t>
   </si>
@@ -161,6 +161,21 @@
   </si>
   <si>
     <t>Rango o categoría</t>
+  </si>
+  <si>
+    <t>HomeTeamSize</t>
+  </si>
+  <si>
+    <t>AwayTeamSize</t>
+  </si>
+  <si>
+    <t>Pandemic</t>
+  </si>
+  <si>
+    <t>Tamaño del equipo local. Grande, si la sumatoría de sus títulos y número de veces sucampeón es mayor o igual que 20 y si ha ganado un título en los últimos 20 años. Mediano, si si la sumatoría de sus títulos y número de veces sucampeón es mayor que 20 y mayor o igual que 10. Pequeño,  si la sumatoría de sus títulos y número de veces sucampeón es menor que 10.</t>
+  </si>
+  <si>
+    <t>Sin restricciones - Aforo Limitado - Puerta cerrada</t>
   </si>
 </sst>
 </file>
@@ -211,11 +226,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,19 +549,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74E1908-4625-4DF8-B221-CA420FF2FC22}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:C3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +573,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -564,7 +584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -575,7 +595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -586,7 +606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -597,7 +617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -608,7 +628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -619,7 +639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -630,7 +650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -641,7 +661,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -652,7 +672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -663,7 +683,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -674,7 +694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -685,7 +705,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -696,7 +716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -707,7 +727,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -718,7 +738,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -729,7 +749,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -740,7 +760,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -751,7 +771,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -762,8 +782,39 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
